--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD5DA9-3C13-4899-B52F-696243B9BC54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E46FFF3-668B-4585-B76F-7063DB7A1858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
-    <sheet name="sp2" sheetId="3" r:id="rId3"/>
+    <sheet name="b_hall" sheetId="4" r:id="rId3"/>
+    <sheet name="sp2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>지도</t>
   </si>
@@ -100,6 +101,38 @@
   </si>
   <si>
     <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중탐사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,6 +670,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,6 +686,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42CDE6-F6B8-4205-BA88-880136AF7066}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E46FFF3-668B-4585-B76F-7063DB7A1858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6644F5-A3AF-46FD-8E84-32ACB34552A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
     <sheet name="b_hall" sheetId="4" r:id="rId3"/>
-    <sheet name="sp2" sheetId="3" r:id="rId4"/>
+    <sheet name="sp3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>지도</t>
   </si>
@@ -133,6 +133,22 @@
   </si>
   <si>
     <t>상자5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -754,30 +770,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="H4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6644F5-A3AF-46FD-8E84-32ACB34552A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8652CA-12D1-4E6C-B93E-7F51B44612D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>지도</t>
   </si>
@@ -149,6 +149,26 @@
   </si>
   <si>
     <t>마음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안실, 창고, 관리실 등에서 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고픔 20 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고픔 회복량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,41 +516,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -544,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,7 +556,7 @@
     <col min="3" max="3" width="114.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -567,8 +566,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -598,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -609,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -620,7 +622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -631,7 +633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -642,7 +644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -653,7 +655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -664,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -675,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -686,18 +688,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -705,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42CDE6-F6B8-4205-BA88-880136AF7066}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,6 +771,12 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8652CA-12D1-4E6C-B93E-7F51B44612D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A46AF-F67A-43A3-BF63-AC8B8C89ED56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
     <sheet name="b_hall" sheetId="4" r:id="rId3"/>
     <sheet name="sp3" sheetId="3" r:id="rId4"/>
+    <sheet name="b_bedroom" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>지도</t>
   </si>
@@ -169,6 +170,26 @@
   </si>
   <si>
     <t>배고픔 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddasfasf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42CDE6-F6B8-4205-BA88-880136AF7066}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -835,4 +856,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A462119-17B9-4F66-9563-10C4FA515C84}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25903DD2-34F7-4619-806C-C7056F42400E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DCF1C8-17B9-49E2-948A-BA7DD754E956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>지도</t>
   </si>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ddasfasf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,14 @@
   </si>
   <si>
     <t>넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,29 +866,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A462119-17B9-4F66-9563-10C4FA515C84}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="1305" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12420" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="main" sheetId="1" r:id="rId4"/>
@@ -26,132 +26,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+  <x:si>
+    <x:t>상자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구실에서 얻은 일지이다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>침대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서랍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만화책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 밝혀줍니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가볍지만 무겁다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안실에서 사용 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명(안적어도됨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배고픔 20 회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>똥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식었다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손전등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지구에서 유행하는 마블링 코믹스 시리즈 3권이다.</x:t>
+  </x:si>
   <x:si>
     <x:t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</x:t>
   </x:si>
   <x:si>
-    <x:t>떡두다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배고픔 20 회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 밝혀줍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안실에서 사용 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가볍지만 무겁다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명(안적어도됨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>똥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식었다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손전등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앙</x:t>
-  </x:si>
-  <x:si>
     <x:t>고유 값</x:t>
   </x:si>
   <x:si>
+    <x:t>매우 우람해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구일지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>집중탐사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원이다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오징어 맛살</x:t>
+  </x:si>
+  <x:si>
     <x:t>창고열쇠</x:t>
   </x:si>
   <x:si>
     <x:t>푸짐하다</x:t>
   </x:si>
   <x:si>
-    <x:t>500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이템 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구일지</x:t>
-  </x:si>
-  <x:si>
     <x:t>갑오징어</x:t>
   </x:si>
   <x:si>
     <x:t>배고픔 회복량</x:t>
   </x:si>
   <x:si>
-    <x:t>오징어 맛살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매우 우람해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>집중탐사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원이다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구실에서 얻은 일지이다</x:t>
-  </x:si>
-  <x:si>
     <x:t>보안실, 창고, 관리실 등에서 사용 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나는</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -219,7 +231,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -912,19 +927,17 @@
   <x:dimension ref="A1:A10"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="B1:B1"/>
+      <x:selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="A1" s="2"/>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A10" s="2" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -936,186 +949,197 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:D15"/>
+  <x:dimension ref="A1:D16"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E16" activeCellId="0" sqref="E16:E16"/>
+      <x:selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="114.5" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="16.125" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="7.625" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="114.5" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B3" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B4" s="2">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B6" s="2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B8" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B9" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B10" s="2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B11" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B12" s="2">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B13" s="2">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B14" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B15" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D15" s="2">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B16" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B2" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B3" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B4" s="1">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B5" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B6" s="1">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B7" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B8" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B9" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B11" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B12" s="1">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B13" s="1">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B14" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="A15" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B15" s="1">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D15" s="1">
-        <x:v>20</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1126,69 +1150,69 @@
   <x:dimension ref="A1:F7"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E5" activeCellId="0" sqref="E5:E5"/>
+      <x:selection activeCell="H1" activeCellId="0" sqref="H1:H1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
-        <x:v>8</x:v>
+      <x:c r="A1" s="2" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
+      <x:c r="C4" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
-      <x:c r="A7" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1202,29 +1226,29 @@
       <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>33</x:v>
+      <x:c r="A1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>9</x:v>
+      <x:c r="B2" s="2" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1232,31 +1256,135 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="A1:A3"/>
+  <x:dimension ref="A1:B26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A3" activeCellId="0" sqref="A3:A3"/>
+      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" t="s">
-        <x:v>26</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" t="s">
-        <x:v>41</x:v>
+      <x:c r="A2" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" t="s">
+      <x:c r="A3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:1">
+      <x:c r="A26" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DBEAAD-4A4D-4D12-A24C-C87CD85B252B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9AC0E7-7906-4939-B75B-0DAF225903BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="12000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>상자</t>
   </si>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>카드키 코드 : type40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +788,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +1002,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1037,12 +1041,10 @@
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1062,7 +1064,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1071,8 +1073,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,12 +1083,8 @@
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9AC0E7-7906-4939-B75B-0DAF225903BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63632C39-8D57-4EC5-83BF-E21929C13146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="12000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="sp3" sheetId="4" r:id="rId4"/>
     <sheet name="b_bedroom" sheetId="5" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" r:id="rId6"/>
+    <sheet name="b_warehouse" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>상자</t>
   </si>
@@ -157,10 +158,6 @@
   </si>
   <si>
     <t>배고픔 회복량</t>
-  </si>
-  <si>
-    <t>소설책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지구에서 유행하는 개그소설이다.</t>
@@ -200,6 +197,34 @@
   </si>
   <si>
     <t>빵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이버</t>
+  </si>
+  <si>
+    <t>망치</t>
+  </si>
+  <si>
+    <t>상자6</t>
+  </si>
+  <si>
+    <t>상자7</t>
+  </si>
+  <si>
+    <t>작은 드라이버다</t>
+  </si>
+  <si>
+    <t>조금 가벼운 것 같다</t>
+  </si>
+  <si>
+    <t>절연 테이프</t>
+  </si>
+  <si>
+    <t>많이 남아있는 것 같다</t>
+  </si>
+  <si>
+    <t>만화책</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -786,10 +811,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -950,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -969,24 +994,57 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2">
         <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1073,7 +1131,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1250,29 +1308,95 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A7745-F0DC-42EA-BFA9-6DBF0804A91D}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63632C39-8D57-4EC5-83BF-E21929C13146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D49CE-EB14-4306-83FF-63D454DCD597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="b_bedroom" sheetId="5" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" r:id="rId6"/>
     <sheet name="b_warehouse" sheetId="7" r:id="rId7"/>
+    <sheet name="a_power" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>상자</t>
   </si>
@@ -813,7 +814,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1404,4 +1405,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780984DA-516F-49B3-B81B-A38B6F5F253D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D49CE-EB14-4306-83FF-63D454DCD597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B29FF-9AAE-43E6-9040-344FD7B8DD01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카드키 코드 : type40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,6 +222,10 @@
   </si>
   <si>
     <t>만화책</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키 아이디 : type40</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -814,8 +814,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -976,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
@@ -1017,35 +1017,35 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1366,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,7 +1379,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780984DA-516F-49B3-B81B-A38B6F5F253D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B29FF-9AAE-43E6-9040-344FD7B8DD01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139BDCD-209C-4BBF-9C07-F363DB68F6C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>상자</t>
   </si>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>카드키 아이디 : type40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -786,18 +790,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -805,7 +817,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -814,7 +826,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="27405" windowHeight="12390" activeTab="7"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27405" windowHeight="12375" activeTab="8"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="main" sheetId="1" r:id="rId4"/>
@@ -20,6 +20,7 @@
     <x:sheet name="b_manageroom" sheetId="6" r:id="rId9"/>
     <x:sheet name="b_warehouse" sheetId="7" r:id="rId10"/>
     <x:sheet name="production_facility" sheetId="8" r:id="rId11"/>
+    <x:sheet name="reference_room" sheetId="9" r:id="rId12"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="daf">items!$D$1:$D$10</x:definedName>
@@ -31,109 +32,154 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <x:si>
+    <x:t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>침대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만화책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손전등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>똥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서랍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구일지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오징어 맛살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창고열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>푸짐하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원이다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배고픔 회복량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑오징어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드라이버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고유 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매우 우람해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>집중탐사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>절연 테이프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지구에서 유행하는 개그소설이다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</x:t>
   </x:si>
   <x:si>
     <x:t>배고픔 20 회복</x:t>
   </x:si>
   <x:si>
+    <x:t>설명(안적어도됨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 밝혀줍니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>가볍지만 무겁다</x:t>
   </x:si>
   <x:si>
-    <x:t>길을 밝혀줍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명(안적어도됨)</x:t>
-  </x:si>
-  <x:si>
     <x:t>보안실에서 사용 가능</x:t>
   </x:si>
   <x:si>
-    <x:t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지구에서 유행하는 개그소설이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>침대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서랍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만화책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>똥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손전등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>망치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자2</x:t>
+    <x:t>조금 가벼운 것 같다</x:t>
   </x:si>
   <x:si>
     <x:t>배고픔 10 회복</x:t>
@@ -142,58 +188,13 @@
     <x:t>작은 드라이버다</x:t>
   </x:si>
   <x:si>
-    <x:t>조금 가벼운 것 같다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오징어 맛살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구일지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창고열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원이다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배고픔 회복량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>푸짐하다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑오징어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이템 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고유 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드라이버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>절연 테이프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매우 우람해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>집중탐사</x:t>
+    <x:t>나중에 필요할 것 같다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구실에서 얻은 일지이다</x:t>
   </x:si>
   <x:si>
     <x:t>카드키 코드 : type40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나중에 필요할 것 같다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구실에서 얻은 일지이다</x:t>
   </x:si>
   <x:si>
     <x:t>많이 남아있는 것 같다</x:t>
@@ -264,7 +265,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -975,11 +979,11 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="3"/>
+      <x:c r="A1" s="4"/>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="3" t="s">
-        <x:v>0</x:v>
+      <x:c r="A10" s="4" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -999,231 +1003,231 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <x:col min="2" max="2" width="7.625" style="3" customWidth="1"/>
-    <x:col min="3" max="3" width="114.5" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="16.125" style="4" customWidth="1"/>
+    <x:col min="2" max="2" width="7.625" style="4" customWidth="1"/>
+    <x:col min="3" max="3" width="114.5" style="4" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="4" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B2" s="4">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="4">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="4" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B4" s="4">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="4">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="4">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B7" s="4">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="4">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B9" s="4">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B10" s="4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C10" s="4" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B2" s="3">
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B3" s="3">
+      <x:c r="C11" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D11" s="2">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B4" s="3">
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="4" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B12" s="4">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B13" s="4">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B14" s="4">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B5" s="3">
+      <x:c r="C14" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B15" s="4">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C15" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="4">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B16" s="4">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C16" s="5" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B17" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B6" s="3">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B7" s="3">
+      <x:c r="C17" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B18" s="4">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C18" s="4" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B19" s="4">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C19" s="4" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B20" s="4">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B8" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B9" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B10" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="A11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B11" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="4" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D11" s="1">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B12" s="3">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B13" s="3">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B14" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C14" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="A15" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B15" s="3">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D15" s="3">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B16" s="3">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C16" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B17" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C17" s="4" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B18" s="3">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B19" s="3">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C19" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B20" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
+      <x:c r="C20" s="4" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
@@ -1245,57 +1249,57 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="4" t="s">
         <x:v>16</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>32</x:v>
+      <x:c r="B3" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D3" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E3" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F3" s="4" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C4" s="3"/>
+      <x:c r="A4" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="3" t="s">
-        <x:v>11</x:v>
+      <x:c r="A5" s="4" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="3" t="s">
-        <x:v>28</x:v>
+      <x:c r="A6" s="4" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s">
-        <x:v>27</x:v>
+      <x:c r="A7" s="4" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1316,18 +1320,18 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B1" s="3"/>
-      <x:c r="C1" s="3"/>
+      <x:c r="A1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="4"/>
+      <x:c r="C1" s="4"/>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>23</x:v>
+      <x:c r="A2" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1348,122 +1352,122 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>16</x:v>
+      <x:c r="A1" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="2" t="s">
-        <x:v>16</x:v>
+      <x:c r="A2" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="2" t="s">
-        <x:v>9</x:v>
+      <x:c r="A3" s="3" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>30</x:v>
+      <x:c r="A4" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1" t="s">
-        <x:v>12</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1">
-      <x:c r="A7" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
-      <x:c r="A8" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1">
-      <x:c r="A9" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1">
-      <x:c r="A10" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
     <x:row r="11" spans="1:2">
-      <x:c r="A11" s="1" t="s">
+      <x:c r="A11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1">
-      <x:c r="A13" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1">
-      <x:c r="A14" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1">
-      <x:c r="A15" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
-      <x:c r="A16" s="1" t="s">
+      <x:c r="A16" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1">
-      <x:c r="A17" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1">
-      <x:c r="A18" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:1">
-      <x:c r="A19" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>31</x:v>
+      <x:c r="B20" s="2" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1">
-      <x:c r="A21" s="1" t="s">
-        <x:v>15</x:v>
+      <x:c r="A21" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1">
-      <x:c r="A26" s="1" t="s">
-        <x:v>6</x:v>
+      <x:c r="A26" s="2" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1484,34 +1488,34 @@
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="5" t="s">
+      <x:c r="A1" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="6" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="6" t="s">
         <x:v>16</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="5" t="s">
-        <x:v>14</x:v>
+      <x:c r="B3" s="6" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="6" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1525,59 +1529,59 @@
       <x:selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>48</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="1" t="s">
-        <x:v>11</x:v>
+      <x:c r="A4" s="2" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>29</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
-        <x:v>27</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>25</x:v>
+      <x:c r="A7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="1" t="s">
-        <x:v>26</x:v>
+      <x:c r="A8" s="2" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1587,18 +1591,34 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" t="s">
-        <x:v>16</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet9"/>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:sheetData/>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139BDCD-209C-4BBF-9C07-F363DB68F6C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859C6BF-C735-4477-AAEB-3C980E46113F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="b_bedroom" sheetId="5" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" r:id="rId6"/>
     <sheet name="b_warehouse" sheetId="7" r:id="rId7"/>
-    <sheet name="a_power" sheetId="8" r:id="rId8"/>
+    <sheet name="b_security" sheetId="9" r:id="rId8"/>
+    <sheet name="b_production" sheetId="10" r:id="rId9"/>
+    <sheet name="a_power" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>상자</t>
   </si>
@@ -792,7 +794,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -817,6 +819,28 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780984DA-516F-49B3-B81B-A38B6F5F253D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1144,8 +1168,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1420,12 +1444,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780984DA-516F-49B3-B81B-A38B6F5F253D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA013011-06ED-4303-B695-9C10D43888DB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1437,6 +1459,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC84ACBE-8CB0-41DA-BE06-7937272D3025}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859C6BF-C735-4477-AAEB-3C980E46113F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFB2A7F-F201-4441-8641-AB5339C88C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11790" yWindow="1935" windowWidth="21600" windowHeight="12000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>상자</t>
   </si>
@@ -40,15 +40,9 @@
     <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
   </si>
   <si>
-    <t>연구실에서 얻은 일지이다</t>
-  </si>
-  <si>
     <t>책상</t>
   </si>
   <si>
-    <t>지도를 보여줍니다(상호작용 가능)</t>
-  </si>
-  <si>
     <t>침대</t>
   </si>
   <si>
@@ -58,15 +52,6 @@
     <t>만화책</t>
   </si>
   <si>
-    <t>길을 밝혀줍니다.</t>
-  </si>
-  <si>
-    <t>가볍지만 무겁다</t>
-  </si>
-  <si>
-    <t>보안실에서 사용 가능</t>
-  </si>
-  <si>
     <t>설명(안적어도됨)</t>
   </si>
   <si>
@@ -76,18 +61,12 @@
     <t>상자3</t>
   </si>
   <si>
-    <t>밥</t>
-  </si>
-  <si>
     <t>바닥</t>
   </si>
   <si>
     <t>상자1</t>
   </si>
   <si>
-    <t>똥</t>
-  </si>
-  <si>
     <t>빛</t>
   </si>
   <si>
@@ -106,12 +85,6 @@
     <t>카드키</t>
   </si>
   <si>
-    <t>달다</t>
-  </si>
-  <si>
-    <t>보안키</t>
-  </si>
-  <si>
     <t>지도</t>
   </si>
   <si>
@@ -130,47 +103,15 @@
     <t>고유 값</t>
   </si>
   <si>
-    <t>매우 우람해</t>
-  </si>
-  <si>
-    <t>연구일지</t>
-  </si>
-  <si>
-    <t>500원</t>
-  </si>
-  <si>
     <t>집중탐사</t>
   </si>
   <si>
-    <t>500원이다</t>
-  </si>
-  <si>
     <t>아이템 이름</t>
   </si>
   <si>
-    <t>오징어 맛살</t>
-  </si>
-  <si>
-    <t>창고열쇠</t>
-  </si>
-  <si>
-    <t>푸짐하다</t>
-  </si>
-  <si>
-    <t>갑오징어</t>
-  </si>
-  <si>
     <t>배고픔 회복량</t>
   </si>
   <si>
-    <t>지구에서 유행하는 개그소설이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배고픔 10 회복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>바닥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,10 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나중에 필요할 것 같다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,11 +164,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카드키 아이디 : type40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카드키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+  </si>
+  <si>
+    <t>어두운 곳에서 사용할 수 있을 것 같다 (우클릭으로 보기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구에서 유행하는 만화모음집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클립</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구부러져 있는 클립이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찢어진 종이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찢겨진 부분이 있는 종이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구노트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실에서 발견한 노트이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실에서 발견한 USB이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건전지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유용하게 쓰일 것 같다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길어보이는 전선이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자 드라이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 일자 드라이버다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료통을 들고 있다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -802,18 +811,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +844,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -848,10 +857,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -863,98 +872,98 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
+      <c r="A5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
+      <c r="A7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
+      <c r="A8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -962,126 +971,107 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
+      <c r="A12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
+      <c r="A15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1104,56 +1094,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1158,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1176,17 +1166,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1209,30 +1199,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1242,22 +1232,22 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,27 +1255,27 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1295,25 +1285,25 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1345,29 +1335,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1389,51 +1379,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1443,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFB2A7F-F201-4441-8641-AB5339C88C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A10925-E456-4B3B-A0F2-BBFD5A2510DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="1935" windowWidth="21600" windowHeight="12000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="b_security" sheetId="9" r:id="rId8"/>
     <sheet name="b_production" sheetId="10" r:id="rId9"/>
     <sheet name="a_power" sheetId="8" r:id="rId10"/>
+    <sheet name="a_security1" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>상자</t>
   </si>
@@ -854,12 +855,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699BAF6D-2CEA-4356-B8F3-EBC9BE927ACF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="27405" windowHeight="12375" activeTab="8"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27405" windowHeight="12375" activeTab="9"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="main" sheetId="1" r:id="rId4"/>
@@ -21,6 +21,7 @@
     <x:sheet name="b_warehouse" sheetId="7" r:id="rId10"/>
     <x:sheet name="production_facility" sheetId="8" r:id="rId11"/>
     <x:sheet name="reference_room" sheetId="9" r:id="rId12"/>
+    <x:sheet name="computer" sheetId="10" r:id="rId13"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="daf">items!$D$1:$D$10</x:definedName>
@@ -35,28 +36,109 @@
     <x:t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</x:t>
   </x:si>
   <x:si>
+    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지구에서 유행하는 개그소설이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오징어 맛살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구일지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>푸짐하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배고픔 회복량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드라이버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매우 우람해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑오징어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500원이다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고유 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창고열쇠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>집중탐사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>절연 테이프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가볍지만 무겁다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배고픔 10 회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작은 드라이버다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배고픔 20 회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조금 가벼운 것 같다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명(안적어도됨)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보안실에서 사용 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 밝혀줍니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>침대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만화책</x:t>
+  </x:si>
+  <x:si>
     <x:t>전선</x:t>
   </x:si>
   <x:si>
-    <x:t>침대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만화책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자7</x:t>
+    <x:t>책상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책</x:t>
   </x:si>
   <x:si>
     <x:t>상자4</x:t>
@@ -68,136 +150,55 @@
     <x:t>빵</x:t>
   </x:si>
   <x:si>
+    <x:t>똥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자3</x:t>
+  </x:si>
+  <x:si>
     <x:t>빛</x:t>
   </x:si>
   <x:si>
+    <x:t>밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서랍</x:t>
+  </x:si>
+  <x:si>
     <x:t>상자6</x:t>
   </x:si>
   <x:si>
+    <x:t>보안키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상자1</x:t>
+  </x:si>
+  <x:si>
     <x:t>망치</x:t>
   </x:si>
   <x:si>
-    <x:t>책상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안키</x:t>
+    <x:t>카드키</x:t>
   </x:si>
   <x:si>
     <x:t>손전등</x:t>
   </x:si>
   <x:si>
-    <x:t>똥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상자5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서랍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구일지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오징어 맛살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창고열쇠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>푸짐하다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500원이다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배고픔 회복량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑오징어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드라이버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고유 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이템 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매우 우람해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>집중탐사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>절연 테이프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도를 보여줍니다(상호작용 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지구에서 유행하는 개그소설이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배고픔 20 회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명(안적어도됨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 밝혀줍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가볍지만 무겁다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보안실에서 사용 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조금 가벼운 것 같다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배고픔 10 회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작은 드라이버다</x:t>
+    <x:t>많이 남아있는 것 같다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구실에서 얻은 일지이다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드키 코드 : type40</x:t>
   </x:si>
   <x:si>
     <x:t>나중에 필요할 것 같다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구실에서 얻은 일지이다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드키 코드 : type40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>많이 남아있는 것 같다</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -983,12 +984,28 @@
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet10"/>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:sheetData/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
@@ -1010,43 +1027,43 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>10</x:v>
@@ -1054,18 +1071,18 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>20</x:v>
@@ -1076,57 +1093,57 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B8" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B10" s="4">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D11" s="2">
         <x:v>10</x:v>
@@ -1134,18 +1151,18 @@
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>2</x:v>
@@ -1153,7 +1170,7 @@
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>10</x:v>
@@ -1164,13 +1181,13 @@
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D15" s="4">
         <x:v>20</x:v>
@@ -1178,57 +1195,57 @@
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B20" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1250,56 +1267,56 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1321,17 +1338,17 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B1" s="4"/>
       <x:c r="C1" s="4"/>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1353,116 +1370,116 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1">
       <x:c r="A18" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1">
       <x:c r="A19" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1">
       <x:c r="A21" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1">
@@ -1489,33 +1506,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D3" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1533,55 +1550,55 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1599,11 +1616,11 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1613,13 +1630,13 @@
   <x:sheetPr codeName="Sheet9"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A10925-E456-4B3B-A0F2-BBFD5A2510DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252D5677-DDB8-4907-A333-7F2FC23F62C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,6 @@
     <t>어두운 곳에서 사용할 수 있을 것 같다</t>
   </si>
   <si>
-    <t>어두운 곳에서 사용할 수 있을 것 같다 (우클릭으로 보기)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지구에서 유행하는 만화모음집</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,6 +237,10 @@
   </si>
   <si>
     <t>연료통을 들고 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키이다 (우클릭으로 보기)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699BAF6D-2CEA-4356-B8F3-EBC9BE927ACF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -882,8 +882,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,46 +1019,46 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
@@ -1066,35 +1066,35 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252D5677-DDB8-4907-A333-7F2FC23F62C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72DEFD5-41CD-4EA7-BA27-C7F34132F31C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="b_production" sheetId="10" r:id="rId9"/>
     <sheet name="a_power" sheetId="8" r:id="rId10"/>
     <sheet name="a_security1" sheetId="11" r:id="rId11"/>
+    <sheet name="reference_room" sheetId="12" r:id="rId12"/>
+    <sheet name="computer" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -877,12 +879,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B36A315-4C1E-481A-B0F3-84FEAABA2DBD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4C869-E144-461F-90B9-5C10D8D7135A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72DEFD5-41CD-4EA7-BA27-C7F34132F31C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B9F929-4C55-4C4C-9E23-07FF23777DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="a_security1" sheetId="11" r:id="rId11"/>
     <sheet name="reference_room" sheetId="12" r:id="rId12"/>
     <sheet name="computer" sheetId="13" r:id="rId13"/>
+    <sheet name="a_hall" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>상자</t>
   </si>
@@ -243,6 +244,18 @@
   </si>
   <si>
     <t>카드키이다 (우클릭으로 보기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중 탐사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -897,12 +910,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4C869-E144-461F-90B9-5C10D8D7135A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F14391-098D-4457-8105-D7D094848A3C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B9F929-4C55-4C4C-9E23-07FF23777DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45523B0C-C764-4F40-9041-67DCAF66F1AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="reference_room" sheetId="12" r:id="rId12"/>
     <sheet name="computer" sheetId="13" r:id="rId13"/>
     <sheet name="a_hall" sheetId="14" r:id="rId14"/>
+    <sheet name="a_security2" sheetId="15" r:id="rId15"/>
+    <sheet name="a_system" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>상자</t>
   </si>
@@ -850,9 +852,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780984DA-516F-49B3-B81B-A38B6F5F253D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -862,6 +864,9 @@
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -899,7 +904,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -913,7 +924,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -923,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F14391-098D-4457-8105-D7D094848A3C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -950,6 +967,45 @@
       </c>
       <c r="B4" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F7A34D-EF2F-429D-BDF6-C64D9906500E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ABB029-4B4D-4920-B71A-904E57530E38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45523B0C-C764-4F40-9041-67DCAF66F1AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BB4BAB-58FD-4A24-9FBC-804A1D76DEED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="a_hall" sheetId="14" r:id="rId14"/>
     <sheet name="a_security2" sheetId="15" r:id="rId15"/>
     <sheet name="a_system" sheetId="16" r:id="rId16"/>
+    <sheet name="lab" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>상자</t>
   </si>
@@ -259,6 +260,18 @@
   <si>
     <t>상자</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장</t>
+  </si>
+  <si>
+    <t>연구노트</t>
+  </si>
+  <si>
+    <t>현미경</t>
+  </si>
+  <si>
+    <t>USB</t>
   </si>
 </sst>
 </file>
@@ -854,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780984DA-516F-49B3-B81B-A38B6F5F253D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1006,6 +1019,59 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379A775A-C427-4DDA-8BC8-C7A4FC278B26}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BB4BAB-58FD-4A24-9FBC-804A1D76DEED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2018C1-A1DA-4B59-8FEC-7BEB26E6C10E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="a_security2" sheetId="15" r:id="rId15"/>
     <sheet name="a_system" sheetId="16" r:id="rId16"/>
     <sheet name="lab" sheetId="17" r:id="rId17"/>
+    <sheet name="a_communication" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>상자</t>
   </si>
@@ -1012,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ABB029-4B4D-4920-B71A-904E57530E38}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1032,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379A775A-C427-4DDA-8BC8-C7A4FC278B26}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
@@ -1072,6 +1073,28 @@
       </c>
       <c r="B6" t="s">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25A7030-CE9B-4A9D-B6AA-CEF4965819D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2018C1-A1DA-4B59-8FEC-7BEB26E6C10E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371781EA-81CD-4421-9EE5-38B69EB837CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
-    <sheet name="b_hall" sheetId="3" r:id="rId3"/>
-    <sheet name="sp3" sheetId="4" r:id="rId4"/>
+    <sheet name="sp3" sheetId="4" r:id="rId3"/>
+    <sheet name="b_hall" sheetId="3" r:id="rId4"/>
     <sheet name="b_bedroom" sheetId="5" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" r:id="rId6"/>
     <sheet name="b_warehouse" sheetId="7" r:id="rId7"/>
     <sheet name="b_security" sheetId="9" r:id="rId8"/>
     <sheet name="b_production" sheetId="10" r:id="rId9"/>
-    <sheet name="a_power" sheetId="8" r:id="rId10"/>
-    <sheet name="a_security1" sheetId="11" r:id="rId11"/>
-    <sheet name="reference_room" sheetId="12" r:id="rId12"/>
-    <sheet name="computer" sheetId="13" r:id="rId13"/>
-    <sheet name="a_hall" sheetId="14" r:id="rId14"/>
-    <sheet name="a_security2" sheetId="15" r:id="rId15"/>
-    <sheet name="a_system" sheetId="16" r:id="rId16"/>
-    <sheet name="lab" sheetId="17" r:id="rId17"/>
-    <sheet name="a_communication" sheetId="18" r:id="rId18"/>
+    <sheet name="b_long" sheetId="20" r:id="rId10"/>
+    <sheet name="a_power" sheetId="8" r:id="rId11"/>
+    <sheet name="a_security1" sheetId="11" r:id="rId12"/>
+    <sheet name="reference_room" sheetId="12" r:id="rId13"/>
+    <sheet name="computer" sheetId="13" r:id="rId14"/>
+    <sheet name="a_hall" sheetId="14" r:id="rId15"/>
+    <sheet name="a_security2" sheetId="15" r:id="rId16"/>
+    <sheet name="a_system" sheetId="16" r:id="rId17"/>
+    <sheet name="lab" sheetId="17" r:id="rId18"/>
+    <sheet name="a_communication" sheetId="18" r:id="rId19"/>
+    <sheet name="a_long" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>상자</t>
   </si>
@@ -865,6 +867,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F7D612-CB0D-4611-8258-5F06C5D50334}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780984DA-516F-49B3-B81B-A38B6F5F253D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -889,7 +911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699BAF6D-2CEA-4356-B8F3-EBC9BE927ACF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -911,7 +933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B36A315-4C1E-481A-B0F3-84FEAABA2DBD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -931,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4C869-E144-461F-90B9-5C10D8D7135A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -950,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F14391-098D-4457-8105-D7D094848A3C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -990,7 +1012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F7A34D-EF2F-429D-BDF6-C64D9906500E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1009,11 +1031,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ABB029-4B4D-4920-B71A-904E57530E38}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1029,7 +1051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379A775A-C427-4DDA-8BC8-C7A4FC278B26}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1082,7 +1104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25A7030-CE9B-4A9D-B6AA-CEF4965819D2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1331,7 +1353,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED9F09-81BB-4C28-B1B1-FA0364F31C77}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F7"/>
@@ -1400,39 +1475,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371781EA-81CD-4421-9EE5-38B69EB837CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92279353-952B-493F-B5BB-5EC211D5C8D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <sheet name="lab" sheetId="17" r:id="rId18"/>
     <sheet name="a_communication" sheetId="18" r:id="rId19"/>
     <sheet name="a_long" sheetId="19" r:id="rId20"/>
+    <sheet name="c_communicate" sheetId="21" r:id="rId21"/>
+    <sheet name="c_warehouse" sheetId="22" r:id="rId22"/>
+    <sheet name="c_hall" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>상자</t>
   </si>
@@ -870,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F7D612-CB0D-4611-8258-5F06C5D50334}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1373,6 +1376,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66E9CCB-A1C5-43CE-AB90-0BE2CBDC07AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F567E53C-A33B-484C-A3C5-46CF2C6185A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B121BB1A-72AA-4332-8297-E373FF966FCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92279353-952B-493F-B5BB-5EC211D5C8D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA44BA5-0605-4537-8C84-53D19FA002B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="c_communicate" sheetId="21" r:id="rId21"/>
     <sheet name="c_warehouse" sheetId="22" r:id="rId22"/>
     <sheet name="c_hall" sheetId="23" r:id="rId23"/>
+    <sheet name="car_room" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
   <si>
     <t>상자</t>
   </si>
@@ -278,13 +279,62 @@
   </si>
   <si>
     <t>USB</t>
+  </si>
+  <si>
+    <t>1인우주선</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,6 +351,58 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -321,12 +423,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,9 +442,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{867BB5CB-B1C8-4FCF-A279-800DA539EA07}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -838,15 +963,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -856,8 +981,10 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -875,9 +1002,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -897,14 +1024,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="4"/>
     </row>
   </sheetData>
@@ -922,9 +1049,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -942,9 +1069,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -962,9 +1089,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -983,24 +1110,24 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
@@ -1021,9 +1148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1040,9 +1167,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1062,24 +1189,24 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1087,12 +1214,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1115,9 +1242,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1135,17 +1262,17 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="114.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1159,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1200,7 +1327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1211,7 +1338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1222,7 +1349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1244,7 +1371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1269,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -1291,7 +1418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -1302,7 +1429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -1316,7 +1443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1327,7 +1454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1338,7 +1465,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1362,9 +1489,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1382,9 +1509,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1398,15 +1525,66 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F567E53C-A33B-484C-A3C5-46CF2C6185A9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1420,11 +1598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B121BB1A-72AA-4332-8297-E373FF966FCD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1432,6 +1610,49 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA8622-E150-4F4F-97A9-DBC43425717A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1444,16 +1665,16 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1477,19 +1698,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1518,17 +1739,17 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1549,24 +1770,24 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1574,37 +1795,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1612,47 +1833,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1660,12 +1881,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1685,19 +1906,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1729,19 +1950,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1749,12 +1970,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1762,12 +1983,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1793,9 +2014,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1812,9 +2033,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA44BA5-0605-4537-8C84-53D19FA002B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B2B7A-2503-4299-91A1-2D2DD0023A83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,7 +966,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B2B7A-2503-4299-91A1-2D2DD0023A83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3DCEA3-79DB-4C71-9C6B-75F17633EB6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>상자</t>
   </si>
@@ -965,7 +965,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1694,8 +1694,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1714,21 +1714,13 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -1737,7 +1729,9 @@
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3DCEA3-79DB-4C71-9C6B-75F17633EB6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E1929-3DA9-40A5-B5C5-7DB85BE27B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -966,7 +966,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1259,10 +1259,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1476,6 +1476,22 @@
         <v>59</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1694,7 +1710,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E1929-3DA9-40A5-B5C5-7DB85BE27B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B38BF9-A6F3-45C6-9CE1-4756BE779E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -963,15 +963,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -981,10 +981,24 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1275,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B38BF9-A6F3-45C6-9CE1-4756BE779E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF2792-2857-4EBE-AC2E-20D5ACE94CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -46,18 +46,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>상자</t>
   </si>
   <si>
     <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-  </si>
-  <si>
-    <t>책상</t>
-  </si>
-  <si>
-    <t>침대</t>
   </si>
   <si>
     <t>서랍</t>
@@ -327,6 +321,10 @@
       </rPr>
       <t>통</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서랍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +963,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -973,13 +971,13 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1000,7 +998,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1018,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1067,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1105,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1128,25 +1126,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1183,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1207,38 +1205,38 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1258,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1288,43 +1286,43 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1332,79 +1330,79 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1412,46 +1410,46 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
@@ -1459,35 +1457,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1523,7 +1521,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1541,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1565,56 +1563,56 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1632,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1655,19 +1653,19 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="9"/>
     </row>
@@ -1676,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1699,17 +1697,17 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1732,20 +1730,20 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1754,28 +1752,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1790,127 +1788,60 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>2</v>
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1918,7 +1849,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1934,29 +1865,29 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1978,51 +1909,51 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +1973,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +1992,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF2792-2857-4EBE-AC2E-20D5ACE94CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33576CDA-54B5-4CD5-B7A6-35B1EE52D6C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>상자</t>
   </si>
@@ -174,9 +174,6 @@
   <si>
     <t>카드키</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 곳에서 사용할 수 있을 것 같다</t>
   </si>
   <si>
     <t>지구에서 유행하는 만화모음집</t>
@@ -325,6 +322,14 @@
   </si>
   <si>
     <t>서랍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 곳에서 사용할 수 있을 것 같다( 장착가능 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -964,21 +969,15 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1033,7 +1032,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1116,35 +1115,41 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F14391-098D-4457-8105-D7D094848A3C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1220,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1223,20 +1228,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1273,8 +1278,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A21" sqref="A19:C21"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1306,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1316,8 +1321,8 @@
       <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1336,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1358,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1369,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1410,46 +1415,46 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
@@ -1457,35 +1462,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1572,7 +1577,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1580,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1588,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1596,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1604,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1612,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1670,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9"/>
     </row>
@@ -1674,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1786,56 +1791,82 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
     </row>
     <row r="20" spans="1:1">
@@ -1899,25 +1930,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A7745-F0DC-42EA-BFA9-6DBF0804A91D}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1925,12 +1956,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1938,20 +1969,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1984,16 +2018,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC84ACBE-8CB0-41DA-BE06-7937272D3025}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B1" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33576CDA-54B5-4CD5-B7A6-35B1EE52D6C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B597CE-A134-4985-A8D9-6EE02695D27C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -176,10 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지구에서 유행하는 만화모음집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
   </si>
   <si>
     <t>연구노트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구실에서 발견한 노트이다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -330,6 +322,14 @@
   </si>
   <si>
     <t>바닥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실에서 발견한 노트이다( 우클릭으로 보기 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구에서 유행하는 만화모음집( 우클릭으로 보기 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1130,20 +1130,20 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>28</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1228,20 +1228,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1278,8 +1278,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1322,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1363,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1415,46 +1415,46 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
@@ -1462,35 +1462,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1593,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1601,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1609,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1617,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="9"/>
     </row>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1793,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B597CE-A134-4985-A8D9-6EE02695D27C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCBF713-0DB6-49C1-ACC7-07557356CDB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지구에서 유행하는 만화모음집( 우클릭으로 보기 )</t>
+    <t>지구에서 유행하는 개그모음집( 우클릭으로 보기 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/Demo/itemo.xlsx
+++ b/Demo/itemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\awesome file\git\Codeplay\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCBF713-0DB6-49C1-ACC7-07557356CDB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD24AF2-EF20-4F13-9B92-11CC148AB4F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>서랍</t>
   </si>
   <si>
-    <t>만화책</t>
-  </si>
-  <si>
     <t>설명(안적어도됨)</t>
   </si>
   <si>
@@ -166,10 +163,6 @@
   </si>
   <si>
     <t>많이 남아있는 것 같다</t>
-  </si>
-  <si>
-    <t>만화책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>카드키</t>
@@ -329,7 +322,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지구에서 유행하는 개그모음집( 우클릭으로 보기 )</t>
+    <t>일기장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가의 일기장( 우클릭으로 보기 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일기장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +998,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1018,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1064,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1105,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1125,31 +1126,31 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1189,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1210,17 +1211,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1228,20 +1229,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1279,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1291,43 +1292,43 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1335,79 +1336,79 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1415,46 +1416,46 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
@@ -1462,35 +1463,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1526,7 +1527,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1547,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1568,56 +1569,56 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1658,19 +1659,19 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9"/>
     </row>
@@ -1679,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1702,17 +1703,17 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1735,20 +1736,20 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1757,28 +1758,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1793,15 +1794,15 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1812,55 +1813,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1896,29 +1897,29 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1940,54 +1941,54 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2008,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2029,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
     </row>
